--- a/DataAndDesignWeekOne/Assets/Editor/PotionCrafting.xlsx
+++ b/DataAndDesignWeekOne/Assets/Editor/PotionCrafting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregdoug\Local Documents\Unity Projects\PipelineExercise\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salamec\Documents\GitHub\dataDesignWeek1\DataAndDesignWeekOne\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D08E4-15D4-4A48-8B2D-FF7234C4AF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CE5D00-3977-48FF-B2BC-79DC19096327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26300" yWindow="-22020" windowWidth="38620" windowHeight="21820" xr2:uid="{BF5A99BE-0962-40A7-B624-F4241E3A742A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{BF5A99BE-0962-40A7-B624-F4241E3A742A}"/>
   </bookViews>
   <sheets>
     <sheet name="Potion Crafting" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>Douglas Gregory</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{1246A4A3-6735-46A2-8F17-B811D2C8D26B}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{1246A4A3-6735-46A2-8F17-B811D2C8D26B}">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{079995A2-456A-4407-8EED-A7B73347BBD6}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{079995A2-456A-4407-8EED-A7B73347BBD6}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{F4BF812D-6630-4E4A-B1F6-38F737613AF8}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{F4BF812D-6630-4E4A-B1F6-38F737613AF8}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U4" authorId="0" shapeId="0" xr:uid="{4C91ED5E-E81B-4885-954A-A2A958397282}">
+    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{4C91ED5E-E81B-4885-954A-A2A958397282}">
       <text>
         <r>
           <rPr>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="106">
   <si>
     <t>Frog's Breath</t>
   </si>
@@ -454,6 +454,39 @@
   </si>
   <si>
     <t>Make canonical ordering to check for duplicates</t>
+  </si>
+  <si>
+    <t>DD Vile</t>
+  </si>
+  <si>
+    <t>DD Week1T</t>
+  </si>
+  <si>
+    <t>DD Week1T2</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>Spice</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Vegtable</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>itemType</t>
   </si>
 </sst>
 </file>
@@ -668,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -746,12 +779,1059 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="156">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -831,319 +1911,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1239,6 +2006,9 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1252,244 +2022,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1510,16 +2042,32 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1544,32 +2092,16 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1582,55 +2114,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1879,7 +2362,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2095,12 +2578,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF3BAED2-EF27-45AA-9191-81EAF4F897C6}" type="CELLRANGE">
+                    <a:fld id="{6AE67F71-DE33-4E83-9B1E-83DE7D22D122}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2128,12 +2611,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{068CA984-9A25-4B91-B0A1-6AF086458DDB}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{9D13A84D-8B36-48C1-972E-6CD5D180B798}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2246,10 +2729,10 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>44%</c:v>
+                    <c:v>39%</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>33%</c:v>
+                    <c:v>31%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2291,12 +2774,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB633F84-97E3-4DD2-B0E8-FE4A0168934E}" type="CELLRANGE">
+                    <a:fld id="{2A367EF8-E73B-4659-A1BD-02C5BDC2AC17}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2324,12 +2807,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0E49F0B-A9FB-43A3-B0D8-E082D5F35190}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{4BC0BD9A-0FC1-4152-B87D-347112B3B124}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2427,10 +2910,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2442,10 +2925,10 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>19%</c:v>
+                    <c:v>22%</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>33%</c:v>
+                    <c:v>38%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2487,12 +2970,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D11EF50-ED31-4384-B660-A5590C2CC0F7}" type="CELLRANGE">
+                    <a:fld id="{A09CDAE2-08BF-4E57-8929-CB0A42B10702}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2520,12 +3003,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0EBC13D-9E08-4EF7-9339-E29FE470A242}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{94062326-29D2-4877-9F77-593599F974D7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2652,10 +3135,10 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>19%</c:v>
+                    <c:v>17%</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>25%</c:v>
+                    <c:v>23%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2697,12 +3180,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2CAF1B9-7CA3-4302-8281-2534688A15CF}" type="CELLRANGE">
+                    <a:fld id="{9296A2EC-F9E0-4E5F-9826-5530EB0F3E19}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2730,12 +3213,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F72F9E09-2C0B-4D47-AE81-B7DA7B50769A}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{9DE6C4C7-4EE9-46FB-A9EA-C421EC31DF43}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2848,7 +3331,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>13%</c:v>
+                    <c:v>11%</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8%</c:v>
@@ -2893,12 +3376,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AD93C4E-647F-47D0-A4EC-13B0BDC7B2A5}" type="CELLRANGE">
+                    <a:fld id="{40FDA5D7-96FE-4D80-A0A1-DFB5E009C868}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2926,12 +3409,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9FB44D6-C715-4D66-8959-BA065765C67A}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
+                    <a:fld id="{4256BB00-7A5B-4E53-9FD8-16F853F71A18}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3029,7 +3512,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3044,7 +3527,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>6%</c:v>
+                    <c:v>11%</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0%</c:v>
@@ -4369,13 +4852,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>69966</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>12256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>21772</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>7044</xdr:rowOff>
@@ -4407,13 +4890,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>71077</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>9605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>718458</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
@@ -4447,22 +4930,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73951C22-04D1-41E8-BECA-981B67516634}" name="Ingredients" displayName="Ingredients" ref="B4:G21" totalsRowCount="1" headerRowDxfId="101">
-  <autoFilter ref="B4:G20" xr:uid="{73951C22-04D1-41E8-BECA-981B67516634}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G20">
-    <sortCondition ref="F4:F20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73951C22-04D1-41E8-BECA-981B67516634}" name="Ingredients" displayName="Ingredients" ref="B4:H23" totalsRowCount="1" headerRowDxfId="155">
+  <autoFilter ref="B4:H22" xr:uid="{73951C22-04D1-41E8-BECA-981B67516634}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H20">
+    <sortCondition ref="G4:G20"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D69EB11C-10F0-4524-8369-AD97563981B3}" name="Name" totalsRowFunction="count" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{F04C1EA5-949E-438D-84A4-56F605CD6069}" name="Rarity" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{32B1FDAB-5698-4E97-B9E0-92BB3CB850BE}" name="Rarity Index" dataDxfId="96">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D69EB11C-10F0-4524-8369-AD97563981B3}" name="Name" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{4D34A716-3AB5-4EB8-BDF1-73B33EDE457C}" name="itemType" dataDxfId="56" totalsRowDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{F04C1EA5-949E-438D-84A4-56F605CD6069}" name="Rarity" dataDxfId="153" totalsRowDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{32B1FDAB-5698-4E97-B9E0-92BB3CB850BE}" name="Rarity Index" dataDxfId="152">
       <calculatedColumnFormula>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F70F9771-BA82-48E7-A0B4-2E7FD8BD939A}" name="Cost Grade" totalsRowFunction="average" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{CE93CA9C-377D-481B-89BC-E83E06A5F76F}" name="Cost" totalsRowFunction="average" totalsRowDxfId="3">
+    <tableColumn id="5" xr3:uid="{F70F9771-BA82-48E7-A0B4-2E7FD8BD939A}" name="Cost Grade" totalsRowFunction="average" dataDxfId="151" totalsRowDxfId="52" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{CE93CA9C-377D-481B-89BC-E83E06A5F76F}" name="Cost" totalsRowFunction="average" totalsRowDxfId="51">
       <calculatedColumnFormula array="1">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7A346AFE-7DF4-4F3C-BFAB-4A1D852F21D8}" name="Uses" totalsRowFunction="average" dataDxfId="93">
+    <tableColumn id="4" xr3:uid="{7A346AFE-7DF4-4F3C-BFAB-4A1D852F21D8}" name="Uses" totalsRowFunction="average" dataDxfId="150">
       <calculatedColumnFormula>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4471,30 +4955,31 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}" name="Potions" displayName="Potions" ref="J4:Q17" totalsRowCount="1" headerRowDxfId="92">
-  <autoFilter ref="J4:Q16" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J5:Q16">
-    <sortCondition ref="L4:L16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}" name="Potions" displayName="Potions" ref="K4:S18" totalsRowCount="1" headerRowDxfId="149">
+  <autoFilter ref="K4:S17" xr:uid="{451847D9-3FAF-498C-A475-EE898461A72D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K5:S16">
+    <sortCondition ref="N4:N16"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2B2A53FB-B655-4CBE-B516-78176C7391D5}" name="Name" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{EAE6CBAD-879C-49FC-BD08-BCB8227CE83D}" name="Rarity" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{79D65A82-0286-4B56-85F8-E7611A76C993}" name="Rarity Index" dataDxfId="87">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2B2A53FB-B655-4CBE-B516-78176C7391D5}" name="Name" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{14689721-FAF9-4AB0-BEAB-35EDFC2EC0C2}" name="itemType" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EAE6CBAD-879C-49FC-BD08-BCB8227CE83D}" name="Rarity" dataDxfId="147" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{79D65A82-0286-4B56-85F8-E7611A76C993}" name="Rarity Index" dataDxfId="146">
       <calculatedColumnFormula>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EE30977B-BB29-4164-BD7E-1CDDA33031C0}" name="Recipes" totalsRowFunction="average" dataDxfId="86">
+    <tableColumn id="4" xr3:uid="{EE30977B-BB29-4164-BD7E-1CDDA33031C0}" name="Recipes" totalsRowFunction="average" dataDxfId="145">
       <calculatedColumnFormula>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4169F023-5CA2-40C0-BB06-AA73323D13E6}" name="Cheapest" dataDxfId="85">
+    <tableColumn id="5" xr3:uid="{4169F023-5CA2-40C0-BB06-AA73323D13E6}" name="Cheapest" dataDxfId="144">
       <calculatedColumnFormula>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DA1F0160-A391-4E61-90DD-2110EF41C4D0}" name="Most Expensive" dataDxfId="84">
+    <tableColumn id="6" xr3:uid="{DA1F0160-A391-4E61-90DD-2110EF41C4D0}" name="Most Expensive" dataDxfId="143">
       <calculatedColumnFormula>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{76C8EFE5-F148-4DE6-A508-FFF36FDD5749}" name="Cost" totalsRowFunction="average" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="3" xr3:uid="{76C8EFE5-F148-4DE6-A508-FFF36FDD5749}" name="Cost" totalsRowFunction="average" dataDxfId="142" totalsRowDxfId="1">
       <calculatedColumnFormula array="1">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{40E105CF-35FD-4E3D-8667-54BE968CCB01}" name="Max Profit" totalsRowFunction="average" totalsRowDxfId="81" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{40E105CF-35FD-4E3D-8667-54BE968CCB01}" name="Max Profit" totalsRowFunction="average" totalsRowDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4503,67 +4988,67 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}" name="Recipes" displayName="Recipes" ref="T4:AO23" totalsRowCount="1" headerRowDxfId="80">
-  <autoFilter ref="T4:AO22" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}" name="Recipes" displayName="Recipes" ref="V4:AQ24" totalsRowCount="1" headerRowDxfId="141">
+  <autoFilter ref="V4:AQ23" xr:uid="{B745A49B-8991-4944-952E-4192E28D1702}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{ADBE2194-B1A5-49EB-B227-4EC79F0CF118}" name="Potion" totalsRowFunction="count" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{9A07B4E8-0752-4810-998D-1864FDA4D0C5}" name="#" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="1" xr3:uid="{ADBE2194-B1A5-49EB-B227-4EC79F0CF118}" name="Potion" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="64"/>
+    <tableColumn id="11" xr3:uid="{9A07B4E8-0752-4810-998D-1864FDA4D0C5}" name="#" dataDxfId="85" totalsRowDxfId="63">
       <calculatedColumnFormula>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{58F881A5-D38C-420E-B3A9-F5DAFC9B3CDC}" name="Item 1" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{5FB74E9E-9005-4A40-AF7E-889C67842659}" name="Item 2" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{47D3F14D-A761-4369-9ECE-DDDCCF2A4B7B}" name="Item 3" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{21CC00C6-3FDC-47A8-9211-D302CFB2710B}" name="Ingredient Count" totalsRowFunction="average" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="3" xr3:uid="{58F881A5-D38C-420E-B3A9-F5DAFC9B3CDC}" name="Item 1" dataDxfId="84" totalsRowDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{5FB74E9E-9005-4A40-AF7E-889C67842659}" name="Item 2" dataDxfId="83" totalsRowDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{47D3F14D-A761-4369-9ECE-DDDCCF2A4B7B}" name="Item 3" dataDxfId="82" totalsRowDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{21CC00C6-3FDC-47A8-9211-D302CFB2710B}" name="Ingredient Count" totalsRowFunction="average" dataDxfId="81" totalsRowDxfId="59">
       <calculatedColumnFormula>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4554F1DA-A49A-4F6B-8332-A9C328847268}" name="Rarity Check" dataDxfId="67">
+    <tableColumn id="15" xr3:uid="{4554F1DA-A49A-4F6B-8332-A9C328847268}" name="Rarity Check" dataDxfId="80">
       <calculatedColumnFormula>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2751418B-BA6A-484A-9D96-6FE9B180B38F}" name="Total Cost" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="6" xr3:uid="{2751418B-BA6A-484A-9D96-6FE9B180B38F}" name="Total Cost" totalsRowFunction="average" dataDxfId="79" totalsRowDxfId="58">
       <calculatedColumnFormula>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D8050BC2-92B3-447D-8EB2-CC04B736CF0D}" name="Profit Margin" totalsRowFunction="average" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Percent">
+    <tableColumn id="19" xr3:uid="{D8050BC2-92B3-447D-8EB2-CC04B736CF0D}" name="Profit Margin" totalsRowFunction="average" dataDxfId="78" totalsRowDxfId="57" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{A1F2DAA8-FE7E-4BBE-84D9-E97B6B65EB44}" name="Potion Index" dataDxfId="62">
+    <tableColumn id="18" xr3:uid="{A1F2DAA8-FE7E-4BBE-84D9-E97B6B65EB44}" name="Potion Index" dataDxfId="77">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{62EE2BF5-750D-4381-A9FB-DCE4CB85836E}" name="Index 1" dataDxfId="61">
+    <tableColumn id="12" xr3:uid="{62EE2BF5-750D-4381-A9FB-DCE4CB85836E}" name="Index 1" dataDxfId="76">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{BD995C84-5B4F-40F1-AA98-C9D08B51DC47}" name="Index 2" dataDxfId="60">
+    <tableColumn id="13" xr3:uid="{BD995C84-5B4F-40F1-AA98-C9D08B51DC47}" name="Index 2" dataDxfId="75">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{71D28CC4-2D2A-4C74-8730-E74C36FB7D4D}" name="Index 3" dataDxfId="59">
+    <tableColumn id="14" xr3:uid="{71D28CC4-2D2A-4C74-8730-E74C36FB7D4D}" name="Index 3" dataDxfId="74">
       <calculatedColumnFormula>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{441D55A7-0CFC-4AA9-B8E4-18B917C04E76}" name="Max Rarity Index" dataDxfId="58">
+    <tableColumn id="16" xr3:uid="{441D55A7-0CFC-4AA9-B8E4-18B917C04E76}" name="Max Rarity Index" dataDxfId="73">
       <calculatedColumnFormula xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{B9B448D3-B955-4668-A730-1BE5416C3974}" name="Potion Rarity Index" dataDxfId="57">
+    <tableColumn id="17" xr3:uid="{B9B448D3-B955-4668-A730-1BE5416C3974}" name="Potion Rarity Index" dataDxfId="72">
       <calculatedColumnFormula array="1">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{5C8B37F8-93EC-45C1-B5CD-A993EC55C715}" name="Ordinal 1" dataDxfId="56">
+    <tableColumn id="20" xr3:uid="{5C8B37F8-93EC-45C1-B5CD-A993EC55C715}" name="Ordinal 1" dataDxfId="71">
       <calculatedColumnFormula>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{3785E39D-2960-460C-A8B9-6545512DD0A4}" name="Ordinal 2" dataDxfId="55">
+    <tableColumn id="21" xr3:uid="{3785E39D-2960-460C-A8B9-6545512DD0A4}" name="Ordinal 2" dataDxfId="70">
       <calculatedColumnFormula>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2BEB7C0B-010B-4973-897D-E5733982828A}" name="Ordinal 3" dataDxfId="54">
+    <tableColumn id="22" xr3:uid="{2BEB7C0B-010B-4973-897D-E5733982828A}" name="Ordinal 3" dataDxfId="69">
       <calculatedColumnFormula>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F5EE45D-1C96-48A9-B435-946FA1595517}" name="Combined" dataDxfId="53">
+    <tableColumn id="7" xr3:uid="{4F5EE45D-1C96-48A9-B435-946FA1595517}" name="Combined" dataDxfId="68">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{296F79AD-58BD-4096-9378-D3B0A2D5EBB1}" name="Row" dataDxfId="52">
+    <tableColumn id="9" xr3:uid="{296F79AD-58BD-4096-9378-D3B0A2D5EBB1}" name="Row" dataDxfId="67">
       <calculatedColumnFormula>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A7CF2656-44E4-4D87-A182-420CA872EBE6}" name="Matching Row" dataDxfId="51">
+    <tableColumn id="8" xr3:uid="{A7CF2656-44E4-4D87-A182-420CA872EBE6}" name="Matching Row" dataDxfId="66">
       <calculatedColumnFormula>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CD3BAA16-E044-4B68-BD28-B2A2E535E8D8}" name="Same As?" dataDxfId="50">
+    <tableColumn id="10" xr3:uid="{CD3BAA16-E044-4B68-BD28-B2A2E535E8D8}" name="Same As?" dataDxfId="65">
       <calculatedColumnFormula array="1">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4572,7 +5057,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15865CD1-2B72-4934-9A52-47ABC6E8AC64}" name="Rarities" displayName="Rarities" ref="B4:J10" totalsRowCount="1" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15865CD1-2B72-4934-9A52-47ABC6E8AC64}" name="Rarities" displayName="Rarities" ref="B4:J10" totalsRowCount="1" headerRowDxfId="140">
   <autoFilter ref="B4:J9" xr:uid="{15865CD1-2B72-4934-9A52-47ABC6E8AC64}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4586,22 +5071,22 @@
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C8A07BBC-E4A1-48D1-BD0B-E020F49EB5F9}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{7F68BEC7-0AEE-4ABF-9B62-90844717F58F}" name="Cheapest" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{AE101426-D7EA-433D-A519-542DC68476BC}" name="Most Expensive" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{7E8FABC3-B9E3-4BEB-97DD-9D2FB274A63A}" name="Cost Range" dataDxfId="46">
+    <tableColumn id="2" xr3:uid="{7F68BEC7-0AEE-4ABF-9B62-90844717F58F}" name="Cheapest" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{AE101426-D7EA-433D-A519-542DC68476BC}" name="Most Expensive" dataDxfId="138"/>
+    <tableColumn id="5" xr3:uid="{7E8FABC3-B9E3-4BEB-97DD-9D2FB274A63A}" name="Cost Range" dataDxfId="137">
       <calculatedColumnFormula>Rarities[[#This Row],[Most Expensive]]-Rarities[[#This Row],[Cheapest]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9949BDBF-DB4F-4CBE-95C0-9041AE23D492}" name="Profit Multiplier" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{CCC9347C-89BA-4103-90E4-8012BAB6A36F}" name="Ingredients" totalsRowFunction="sum" dataDxfId="44">
+    <tableColumn id="4" xr3:uid="{9949BDBF-DB4F-4CBE-95C0-9041AE23D492}" name="Profit Multiplier" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{CCC9347C-89BA-4103-90E4-8012BAB6A36F}" name="Ingredients" totalsRowFunction="sum" dataDxfId="135">
       <calculatedColumnFormula>COUNTIF(Ingredients[Rarity], Rarities[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FEF06629-95EF-469A-ABD3-AE9F02034BCD}" name="Potions" totalsRowFunction="sum" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{FEF06629-95EF-469A-ABD3-AE9F02034BCD}" name="Potions" totalsRowFunction="sum" dataDxfId="134">
       <calculatedColumnFormula>COUNTIF(Potions[Rarity], Rarities[[#This Row],[Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3BCA6BE-F3E6-4FE5-BFA5-52E444AA7726}" name="Ingredients %" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{B3BCA6BE-F3E6-4FE5-BFA5-52E444AA7726}" name="Ingredients %" dataDxfId="133" dataCellStyle="Percent">
       <calculatedColumnFormula>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6093718C-F3D7-4374-A034-E2E7E3D029FE}" name="Potions %" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{6093718C-F3D7-4374-A034-E2E7E3D029FE}" name="Potions %" dataDxfId="132" dataCellStyle="Percent">
       <calculatedColumnFormula>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4610,9 +5095,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4650,7 +5135,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4756,7 +5241,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4898,7 +5383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4906,2580 +5391,2823 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260103A1-078B-47F4-B698-AE1FC36BEB09}">
-  <dimension ref="B1:AP34"/>
+  <dimension ref="B1:AR36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.68359375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="8.41796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="8.83984375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7890625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="3.578125" customWidth="1"/>
-    <col min="9" max="9" width="3.41796875" customWidth="1"/>
-    <col min="10" max="10" width="18.68359375" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="8.68359375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="8.83984375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.83984375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9.41796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9.41796875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.83984375" customWidth="1"/>
-    <col min="18" max="18" width="3.734375" customWidth="1"/>
-    <col min="19" max="19" width="3.83984375" customWidth="1"/>
-    <col min="20" max="20" width="15.83984375" customWidth="1"/>
-    <col min="21" max="21" width="4" customWidth="1"/>
-    <col min="22" max="22" width="15" style="7" customWidth="1"/>
-    <col min="23" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="9.41796875" customWidth="1"/>
-    <col min="27" max="28" width="12.15625" customWidth="1"/>
-    <col min="29" max="29" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="32" width="9.05078125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="34" width="9.9453125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="7.26171875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="37" width="7.41796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="35.20703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="6.26171875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="8.47265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="10.47265625" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="15.83984375" customWidth="1"/>
-    <col min="43" max="43" width="15.41796875" customWidth="1"/>
-    <col min="44" max="44" width="13.26171875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+    <col min="11" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="8.85546875" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" customWidth="1"/>
+    <col min="21" max="21" width="3.85546875" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" customWidth="1"/>
+    <col min="23" max="23" width="4" customWidth="1"/>
+    <col min="24" max="24" width="15" style="7" customWidth="1"/>
+    <col min="25" max="26" width="15" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" customWidth="1"/>
+    <col min="29" max="30" width="12.140625" customWidth="1"/>
+    <col min="31" max="31" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="34" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="36" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="7.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="39" width="7.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="35.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="6.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="8.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="43" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="15.85546875" customWidth="1"/>
+    <col min="45" max="45" width="15.42578125" customWidth="1"/>
+    <col min="46" max="46" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="U1" s="7"/>
-      <c r="V1"/>
-      <c r="AI1" t="s">
+    <row r="1" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="W1" s="7"/>
+      <c r="X1"/>
+      <c r="AK1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="2:41" x14ac:dyDescent="0.55000000000000004">
-      <c r="U2" s="7"/>
-      <c r="V2"/>
-      <c r="AI2" t="s">
+    <row r="2" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="W2" s="7"/>
+      <c r="X2"/>
+      <c r="AK2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="C3" s="5"/>
+      <c r="G3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="L3" s="5"/>
+      <c r="P3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24" t="s">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="19" t="s">
+      <c r="W3" s="7"/>
+      <c r="X3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
-      <c r="AD3" s="20" t="s">
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AF3" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AI3" t="s">
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AK3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:41" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:43" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4"/>
-      <c r="J4" s="2" t="s">
+      <c r="I4"/>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="P4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R4"/>
-      <c r="T4" s="2" t="s">
+      <c r="T4"/>
+      <c r="V4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="Y4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AG4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AH4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="33" t="s">
+      <c r="AK4" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="AJ4" s="33" t="s">
+      <c r="AL4" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="AK4" s="33" t="s">
+      <c r="AM4" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AL4" s="33" t="s">
+      <c r="AN4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AM4" s="34" t="s">
+      <c r="AO4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="AN4" s="33" t="s">
+      <c r="AP4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>5</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>80</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>110</v>
       </c>
-      <c r="P5" cm="1">
-        <f t="array" ref="P5">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="R5" cm="1">
+        <f t="array" ref="R5">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
         <v>115</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="S5" s="25">
         <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
         <v>0.4375</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="U5" s="7">
+      <c r="W5" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>1</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="X5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="Y5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="X5" s="21"/>
-      <c r="Y5">
+      <c r="Z5" s="21"/>
+      <c r="AA5">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>2</v>
       </c>
-      <c r="Z5" t="str">
+      <c r="AB5" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Equal</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>80</v>
       </c>
-      <c r="AB5" s="25" cm="1">
-        <f t="array" ref="AB5">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD5" s="25" cm="1">
+        <f t="array" ref="AD5">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.4375</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>7</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>3</v>
       </c>
-      <c r="AF5" t="e">
+      <c r="AH5" t="e">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>1</v>
       </c>
-      <c r="AH5" cm="1">
-        <f t="array" ref="AH5">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ5" cm="1">
+        <f t="array" ref="AJ5">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>1</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>0</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="AN5" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Crawler Grub + Tangleroot</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>1</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO5" t="str" cm="1">
-        <f t="array" ref="AO5">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ5" t="str" cm="1">
+        <f t="array" ref="AQ5">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>30</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>4</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>60</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>60</v>
       </c>
-      <c r="P6" cm="1">
-        <f t="array" ref="P6">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="R6" cm="1">
+        <f t="array" ref="R6">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
         <v>70</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="S6" s="25">
         <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="U6" s="7">
+      <c r="W6" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>2</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="X6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="21" t="s">
+      <c r="Y6" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="X6" s="21"/>
-      <c r="Y6">
+      <c r="Z6" s="21"/>
+      <c r="AA6">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>2</v>
       </c>
-      <c r="Z6" t="str">
+      <c r="AB6" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Elevated</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>110</v>
       </c>
-      <c r="AB6" s="25" cm="1">
-        <f t="array" ref="AB6">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD6" s="25" cm="1">
+        <f t="array" ref="AD6">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>9</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="AF6" t="e">
+      <c r="AH6" t="e">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>2</v>
       </c>
-      <c r="AH6" cm="1">
-        <f t="array" ref="AH6">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ6" cm="1">
+        <f t="array" ref="AJ6">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>1</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>0</v>
       </c>
-      <c r="AL6" t="str">
+      <c r="AN6" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Amber + Monster Blood</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>2</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO6" t="str" cm="1">
-        <f t="array" ref="AO6">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ6" t="str" cm="1">
+        <f t="array" ref="AQ6">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>0.1</v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>100</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>100</v>
       </c>
-      <c r="P7" cm="1">
-        <f t="array" ref="P7">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="R7" cm="1">
+        <f t="array" ref="R7">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
         <v>120</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="S7" s="25">
         <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
         <v>0.2</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="U7" s="7">
+      <c r="W7" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>1</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="X7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="Y7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="X7" s="21"/>
-      <c r="Y7">
+      <c r="Z7" s="21"/>
+      <c r="AA7">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>2</v>
       </c>
-      <c r="Z7" t="str">
+      <c r="AB7" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Equal</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>60</v>
       </c>
-      <c r="AB7" s="25" cm="1">
-        <f t="array" ref="AB7">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD7" s="25" cm="1">
+        <f t="array" ref="AD7">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>2</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>4</v>
       </c>
-      <c r="AF7" t="e">
+      <c r="AH7" t="e">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>1</v>
       </c>
-      <c r="AH7" cm="1">
-        <f t="array" ref="AH7">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ7" cm="1">
+        <f t="array" ref="AJ7">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>1</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>0</v>
       </c>
-      <c r="AL7" t="str">
+      <c r="AN7" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Monster Blood + Morning Dew</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>3</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO7" t="str">
-        <f t="array" ref="AO7">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ7" t="str">
+        <f t="array" ref="AQ7">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>0.1</v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>30</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>4</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>90</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>90</v>
       </c>
-      <c r="P8" cm="1">
-        <f t="array" ref="P8">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="R8" cm="1">
+        <f t="array" ref="R8">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
         <v>110</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="S8" s="25">
         <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="7">
+      <c r="W8" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>1</v>
       </c>
-      <c r="V8" s="21" t="s">
+      <c r="X8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="21" t="s">
+      <c r="Y8" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="X8" s="21"/>
-      <c r="Y8">
+      <c r="Z8" s="21"/>
+      <c r="AA8">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>2</v>
       </c>
-      <c r="Z8" t="str">
+      <c r="AB8" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Elevated</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>100</v>
       </c>
-      <c r="AB8" s="25" cm="1">
-        <f t="array" ref="AB8">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD8" s="25" cm="1">
+        <f t="array" ref="AD8">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.2</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>3</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>8</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>2</v>
       </c>
-      <c r="AF8" t="e">
+      <c r="AH8" t="e">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>2</v>
       </c>
-      <c r="AH8" cm="1">
-        <f t="array" ref="AH8">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ8" cm="1">
+        <f t="array" ref="AJ8">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>1</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>0</v>
       </c>
-      <c r="AL8" t="str">
+      <c r="AN8" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Dizzyberry + Noxious Slime</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>4</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO8" t="str" cm="1">
-        <f t="array" ref="AO8">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ8" t="str" cm="1">
+        <f t="array" ref="AQ8">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>0.2</v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>35</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>3</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>2</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
         <v>3</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>150</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>200</v>
       </c>
-      <c r="P9" cm="1">
-        <f t="array" ref="P9">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="R9" cm="1">
+        <f t="array" ref="R9">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
         <v>230</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="S9" s="25">
         <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="U9" s="7">
+      <c r="W9" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>2</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="X9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="21" t="s">
+      <c r="Y9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="X9" s="21"/>
-      <c r="Y9">
+      <c r="Z9" s="21"/>
+      <c r="AA9">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>2</v>
       </c>
-      <c r="Z9" t="str">
+      <c r="AB9" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Elevated</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>100</v>
       </c>
-      <c r="AB9" s="25" cm="1">
-        <f t="array" ref="AB9">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD9" s="25" cm="1">
+        <f t="array" ref="AD9">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.2</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>3</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>8</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="AF9" t="e">
+      <c r="AH9" t="e">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>2</v>
       </c>
-      <c r="AH9" cm="1">
-        <f t="array" ref="AH9">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ9" cm="1">
+        <f t="array" ref="AJ9">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>1</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>0</v>
       </c>
-      <c r="AL9" t="str">
+      <c r="AN9" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Dizzyberry + Monster Blood</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>5</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO9" t="str" cm="1">
-        <f t="array" ref="AO9">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ9" t="str" cm="1">
+        <f t="array" ref="AQ9">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>0.5</v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>40</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>2</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>175</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>175</v>
       </c>
-      <c r="P10" cm="1">
-        <f t="array" ref="P10">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="R10" cm="1">
+        <f t="array" ref="R10">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
         <v>230</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="S10" s="25">
         <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
         <v>0.31428571428571428</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="7">
+      <c r="W10" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>1</v>
       </c>
-      <c r="V10" s="21" t="s">
+      <c r="X10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="W10" s="21" t="s">
+      <c r="Y10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="X10" s="21"/>
-      <c r="Y10">
+      <c r="Z10" s="21"/>
+      <c r="AA10">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>2</v>
       </c>
-      <c r="Z10" t="str">
+      <c r="AB10" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Equal</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>90</v>
       </c>
-      <c r="AB10" s="25" cm="1">
-        <f t="array" ref="AB10">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD10" s="25" cm="1">
+        <f t="array" ref="AD10">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>4</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>6</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>7</v>
       </c>
-      <c r="AF10" t="e">
+      <c r="AH10" t="e">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>1</v>
       </c>
-      <c r="AH10" cm="1">
-        <f t="array" ref="AH10">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ10" cm="1">
+        <f t="array" ref="AJ10">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>1</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AJ10">
+      <c r="AL10">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>0</v>
       </c>
-      <c r="AL10" t="str">
+      <c r="AN10" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Tangleroot + Vitafruit</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>6</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO10" t="str" cm="1">
-        <f t="array" ref="AO10">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ10" t="str" cm="1">
+        <f t="array" ref="AQ10">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="12">
+      <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>50</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>3</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="L11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>2</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>150</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>150</v>
       </c>
-      <c r="P11" cm="1">
-        <f t="array" ref="P11">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="R11" cm="1">
+        <f t="array" ref="R11">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
         <v>195</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="S11" s="25">
         <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
         <v>0.3</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="7">
+      <c r="W11" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>1</v>
       </c>
-      <c r="V11" s="21" t="s">
+      <c r="X11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="W11" s="21" t="s">
+      <c r="Y11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="X11" s="21"/>
-      <c r="Y11">
+      <c r="Z11" s="21"/>
+      <c r="AA11">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>2</v>
       </c>
-      <c r="Z11" t="str">
+      <c r="AB11" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Elevated</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>150</v>
       </c>
-      <c r="AB11" s="25" cm="1">
-        <f t="array" ref="AB11">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD11" s="25" cm="1">
+        <f t="array" ref="AD11">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>5</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>11</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>2</v>
       </c>
-      <c r="AF11" t="e">
+      <c r="AH11" t="e">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>3</v>
       </c>
-      <c r="AH11">
-        <f t="array" ref="AH11">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ11">
+        <f t="array" ref="AJ11">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>2</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>0</v>
       </c>
-      <c r="AL11" t="str">
+      <c r="AN11" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Frostweed + Noxious Slime</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>7</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO11" t="str">
-        <f t="array" ref="AO11">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ11" t="str">
+        <f t="array" ref="AQ11">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>2</v>
       </c>
-      <c r="E12" s="12">
+      <c r="F12" s="12">
         <v>0.2</v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>70</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>4</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="L12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>2</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
         <v>1</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>140</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>140</v>
       </c>
-      <c r="P12" cm="1">
-        <f t="array" ref="P12">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="R12" cm="1">
+        <f t="array" ref="R12">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
         <v>180</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="S12" s="25">
         <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U12" s="7">
+      <c r="W12" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>2</v>
       </c>
-      <c r="V12" s="21" t="s">
+      <c r="X12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="W12" s="21" t="s">
+      <c r="Y12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="X12" s="21"/>
-      <c r="Y12">
+      <c r="Z12" s="21"/>
+      <c r="AA12">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>2</v>
       </c>
-      <c r="Z12" t="str">
+      <c r="AB12" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Equal</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>180</v>
       </c>
-      <c r="AB12" s="25" cm="1">
-        <f t="array" ref="AB12">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD12" s="25" cm="1">
+        <f t="array" ref="AD12">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>5</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>8</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>10</v>
       </c>
-      <c r="AF12" t="e">
+      <c r="AH12" t="e">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>2</v>
       </c>
-      <c r="AH12" cm="1">
-        <f t="array" ref="AH12">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ12" cm="1">
+        <f t="array" ref="AJ12">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>2</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>0</v>
       </c>
-      <c r="AL12" t="str">
+      <c r="AN12" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Dizzyberry + Indigocap</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>8</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO12" t="str" cm="1">
-        <f t="array" ref="AO12">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ12" t="str" cm="1">
+        <f t="array" ref="AQ12">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>2</v>
       </c>
-      <c r="E13" s="12">
+      <c r="F13" s="12">
         <v>0.3</v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>80</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
-        <v>3</v>
-      </c>
-      <c r="J13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="L13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>3</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>335</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>430</v>
       </c>
-      <c r="P13" cm="1">
-        <f t="array" ref="P13">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="R13" cm="1">
+        <f t="array" ref="R13">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
         <v>515</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="S13" s="25">
         <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
         <v>0.53731343283582089</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U13" s="7">
+      <c r="W13" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>3</v>
       </c>
-      <c r="V13" s="21" t="s">
+      <c r="X13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="W13" s="21" t="s">
+      <c r="Y13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="X13" s="21" t="s">
+      <c r="Z13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>3</v>
       </c>
-      <c r="Z13" t="str">
+      <c r="AB13" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Equal</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>200</v>
       </c>
-      <c r="AB13" s="25" cm="1">
-        <f t="array" ref="AB13">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD13" s="25" cm="1">
+        <f t="array" ref="AD13">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.15</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>5</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>10</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>6</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>7</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>2</v>
       </c>
-      <c r="AH13" cm="1">
-        <f t="array" ref="AH13">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ13" cm="1">
+        <f t="array" ref="AJ13">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>2</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>3</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AL13" t="str">
+      <c r="AN13" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Indigocap + Tangleroot + Vitafruit</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>9</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO13" t="str" cm="1">
-        <f t="array" ref="AO13">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ13" t="str" cm="1">
+        <f t="array" ref="AQ13">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>2</v>
       </c>
-      <c r="E14" s="12">
+      <c r="F14" s="12">
         <v>0.8</v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>110</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
-        <v>4</v>
-      </c>
-      <c r="J14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>3</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
         <v>1</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>210</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>210</v>
       </c>
-      <c r="P14" cm="1">
-        <f t="array" ref="P14">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="R14" cm="1">
+        <f t="array" ref="R14">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
         <v>285</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="S14" s="25">
         <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="U14" s="7">
+      <c r="W14" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>1</v>
       </c>
-      <c r="V14" s="21" t="s">
+      <c r="X14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="21" t="s">
+      <c r="Y14" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="X14" s="21" t="s">
+      <c r="Z14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>3</v>
       </c>
-      <c r="Z14" t="str">
+      <c r="AB14" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Equal</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>175</v>
       </c>
-      <c r="AB14" s="25" cm="1">
-        <f t="array" ref="AB14">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD14" s="25" cm="1">
+        <f t="array" ref="AD14">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.31428571428571428</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>6</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>10</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>5</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>3</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>2</v>
       </c>
-      <c r="AH14" cm="1">
-        <f t="array" ref="AH14">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ14" cm="1">
+        <f t="array" ref="AJ14">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>2</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>3</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AL14" t="str">
+      <c r="AN14" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Crawler Grub + Frog's Breath + Indigocap</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>10</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO14" t="str" cm="1">
-        <f t="array" ref="AO14">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ14" t="str" cm="1">
+        <f t="array" ref="AQ14">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>3</v>
       </c>
-      <c r="E15" s="12">
+      <c r="F15" s="12">
         <v>0.1</v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>120</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>3</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
         <v>1</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>245</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>245</v>
       </c>
-      <c r="P15" cm="1">
-        <f t="array" ref="P15">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="R15" cm="1">
+        <f t="array" ref="R15">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
         <v>330</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="S15" s="25">
         <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
         <v>0.34693877551020408</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U15" s="7">
+      <c r="W15" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>1</v>
       </c>
-      <c r="V15" s="21" t="s">
+      <c r="X15" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="W15" s="21" t="s">
+      <c r="Y15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="X15" s="21"/>
-      <c r="Y15">
+      <c r="Z15" s="21"/>
+      <c r="AA15">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>2</v>
       </c>
-      <c r="Z15" t="str">
+      <c r="AB15" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Elevated</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>150</v>
       </c>
-      <c r="AB15" s="25" cm="1">
-        <f t="array" ref="AB15">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD15" s="25" cm="1">
+        <f t="array" ref="AD15">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.3</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>7</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>11</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>4</v>
       </c>
-      <c r="AF15" t="e">
+      <c r="AH15" t="e">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>3</v>
       </c>
-      <c r="AH15" cm="1">
-        <f t="array" ref="AH15">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ15" cm="1">
+        <f t="array" ref="AJ15">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>2</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AJ15">
+      <c r="AL15">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>0</v>
       </c>
-      <c r="AL15" t="str">
+      <c r="AN15" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Frostweed + Morning Dew</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>11</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO15" t="str" cm="1">
-        <f t="array" ref="AO15">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ15" t="str" cm="1">
+        <f t="array" ref="AQ15">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>3</v>
       </c>
-      <c r="E16" s="12">
+      <c r="F16" s="12">
         <v>0.4</v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>145</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>4</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <f>COUNTIF(Recipes[Potion], Potions[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>420</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
         <v>520</v>
       </c>
-      <c r="P16" cm="1">
-        <f t="array" ref="P16">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="R16" cm="1">
+        <f t="array" ref="R16">MROUND(AVERAGE(Potions[[#This Row],[Cheapest]:[Most Expensive]])*INDEX(Rarities[Profit Multiplier], Potions[[#This Row],[Rarity Index]]), 5)</f>
         <v>660</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="S16" s="25">
         <f>(Potions[[#This Row],[Cost]]-Potions[[#This Row],[Cheapest]])/Potions[[#This Row],[Cheapest]]</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="V16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="U16" s="7">
+      <c r="W16" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>1</v>
       </c>
-      <c r="V16" s="21" t="s">
+      <c r="X16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="W16" s="21" t="s">
+      <c r="Y16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="X16" s="21"/>
-      <c r="Y16">
+      <c r="Z16" s="21"/>
+      <c r="AA16">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>2</v>
       </c>
-      <c r="Z16" t="str">
+      <c r="AB16" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Equal</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>140</v>
       </c>
-      <c r="AB16" s="25" cm="1">
-        <f t="array" ref="AB16">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD16" s="25" cm="1">
+        <f t="array" ref="AD16">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>8</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>10</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="AF16" t="e">
+      <c r="AH16" t="e">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>2</v>
       </c>
-      <c r="AH16" cm="1">
-        <f t="array" ref="AH16">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ16" cm="1">
+        <f t="array" ref="AJ16">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>2</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AJ16">
+      <c r="AL16">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AK16">
+      <c r="AM16">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>0</v>
       </c>
-      <c r="AL16" t="str">
+      <c r="AN16" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Indigocap + Monster Blood</v>
       </c>
-      <c r="AM16">
+      <c r="AO16">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>12</v>
       </c>
-      <c r="AN16">
+      <c r="AP16">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO16" t="str" cm="1">
-        <f t="array" ref="AO16">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ16" t="str" cm="1">
+        <f t="array" ref="AQ16">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>3</v>
       </c>
-      <c r="E17" s="12">
+      <c r="F17" s="12">
         <v>0.8</v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>180</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
-      <c r="J17" s="26">
-        <f>SUBTOTAL(103,Potions[Name])</f>
-        <v>12</v>
-      </c>
-      <c r="K17" s="26"/>
-      <c r="M17">
-        <f>SUBTOTAL(101,Potions[Recipes])</f>
-        <v>1.5</v>
-      </c>
-      <c r="P17" s="31">
-        <f>SUBTOTAL(101,Potions[Cost])</f>
-        <v>253.33333333333334</v>
-      </c>
-      <c r="Q17" s="27">
-        <f>SUBTOTAL(101,Potions[Max Profit])</f>
-        <v>0.35604548826163968</v>
-      </c>
-      <c r="T17" s="4" t="s">
+      <c r="K17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="40">
+        <f>MATCH(Potions[[#This Row],[Rarity]],Rarities[Name], 0)</f>
+        <v>2</v>
+      </c>
+      <c r="O17" s="40">
+        <v>2</v>
+      </c>
+      <c r="P17" s="40">
+        <f>_xlfn.MINIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
+        <v>500</v>
+      </c>
+      <c r="Q17" s="40">
+        <f>_xlfn.MAXIFS(Recipes[Total Cost],Recipes[Potion],Potions[[#This Row],[Name]])</f>
+        <v>500</v>
+      </c>
+      <c r="R17" s="40">
+        <v>150</v>
+      </c>
+      <c r="S17" s="25">
+        <f>S16</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U17" s="7">
+      <c r="W17" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>1</v>
       </c>
-      <c r="V17" s="21" t="s">
+      <c r="X17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W17" s="21" t="s">
+      <c r="Y17" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="X17" s="21" t="s">
+      <c r="Z17" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>3</v>
       </c>
-      <c r="Z17" t="str">
+      <c r="AB17" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Elevated</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>335</v>
       </c>
-      <c r="AB17" s="25" cm="1">
-        <f t="array" ref="AB17">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD17" s="25" cm="1">
+        <f t="array" ref="AD17">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.53731343283582089</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>9</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>14</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>9</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>5</v>
       </c>
-      <c r="AG17">
+      <c r="AI17">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>4</v>
       </c>
-      <c r="AH17" cm="1">
-        <f t="array" ref="AH17">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ17" cm="1">
+        <f t="array" ref="AJ17">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>3</v>
       </c>
-      <c r="AI17">
+      <c r="AK17">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>3</v>
       </c>
-      <c r="AJ17">
+      <c r="AL17">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AK17">
+      <c r="AM17">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AL17" t="str">
+      <c r="AN17" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Frog's Breath + Magicite + Amber</v>
       </c>
-      <c r="AM17">
+      <c r="AO17">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>13</v>
       </c>
-      <c r="AN17">
+      <c r="AP17">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO17" t="str" cm="1">
-        <f t="array" ref="AO17">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ17" t="str" cm="1">
+        <f t="array" ref="AQ17">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>4</v>
       </c>
-      <c r="E18" s="12">
+      <c r="F18" s="12">
         <v>0</v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>220</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>2</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" t="s">
-        <v>91</v>
-      </c>
-      <c r="T18" s="4" t="s">
+      <c r="K18" s="26">
+        <f>SUBTOTAL(103,Potions[Name])</f>
+        <v>13</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="O18">
+        <f>SUBTOTAL(101,Potions[Recipes])</f>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="R18" s="31">
+        <f>SUBTOTAL(101,Potions[Cost])</f>
+        <v>245.38461538461539</v>
+      </c>
+      <c r="S18" s="27">
+        <f>SUBTOTAL(101,Potions[Max Profit])</f>
+        <v>0.37261341773601903</v>
+      </c>
+      <c r="V18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U18" s="7">
+      <c r="W18" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>2</v>
       </c>
-      <c r="V18" s="21" t="s">
+      <c r="X18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W18" s="21" t="s">
+      <c r="Y18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="X18" s="21" t="s">
+      <c r="Z18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>3</v>
       </c>
-      <c r="Z18" t="str">
+      <c r="AB18" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Elevated</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>430</v>
       </c>
-      <c r="AB18" s="25" cm="1">
-        <f t="array" ref="AB18">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD18" s="25" cm="1">
+        <f t="array" ref="AD18">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.19767441860465115</v>
       </c>
-      <c r="AC18">
+      <c r="AE18">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>9</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>14</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>13</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>2</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>4</v>
       </c>
-      <c r="AH18" cm="1">
-        <f t="array" ref="AH18">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ18" cm="1">
+        <f t="array" ref="AJ18">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>3</v>
       </c>
-      <c r="AI18">
+      <c r="AK18">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AJ18">
+      <c r="AL18">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AK18">
+      <c r="AM18">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>3</v>
       </c>
-      <c r="AL18" t="str">
+      <c r="AN18" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Emerald Dust + Magicite + Noxious Slime</v>
       </c>
-      <c r="AM18">
+      <c r="AO18">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>14</v>
       </c>
-      <c r="AN18">
+      <c r="AP18">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO18" t="str" cm="1">
-        <f t="array" ref="AO18">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ18" t="str" cm="1">
+        <f t="array" ref="AQ18">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>4</v>
       </c>
-      <c r="E19" s="12">
+      <c r="F19" s="12">
         <v>0.5</v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>310</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
-        <v>2</v>
-      </c>
-      <c r="T19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="O19" t="s">
+        <v>91</v>
+      </c>
+      <c r="V19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="U19" s="7">
+      <c r="W19" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>1</v>
       </c>
-      <c r="V19" s="21" t="s">
+      <c r="X19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="W19" s="21" t="s">
+      <c r="Y19" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="X19" s="21" t="s">
+      <c r="Z19" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>3</v>
       </c>
-      <c r="Z19" t="str">
+      <c r="AB19" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Equal</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>210</v>
       </c>
-      <c r="AB19" s="25" cm="1">
-        <f t="array" ref="AB19">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD19" s="25" cm="1">
+        <f t="array" ref="AD19">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>10</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>12</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>5</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>1</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>3</v>
       </c>
-      <c r="AH19" cm="1">
-        <f t="array" ref="AH19">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ19" cm="1">
+        <f t="array" ref="AJ19">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>3</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AJ19">
+      <c r="AL19">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AK19">
+      <c r="AM19">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>3</v>
       </c>
-      <c r="AL19" t="str">
+      <c r="AN19" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Frog's Breath + Mandrake + Monster Blood</v>
       </c>
-      <c r="AM19">
+      <c r="AO19">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>15</v>
       </c>
-      <c r="AN19">
+      <c r="AP19">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO19" t="str" cm="1">
-        <f t="array" ref="AO19">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ19" t="str" cm="1">
+        <f t="array" ref="AQ19">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
         <v>5</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="6">
         <v>0.3</v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
         <v>545</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
         <v>0</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="V20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="7">
+      <c r="W20" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>1</v>
       </c>
-      <c r="V20" s="21" t="s">
+      <c r="X20" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="W20" s="21" t="s">
+      <c r="Y20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="X20" s="21" t="s">
+      <c r="Z20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>3</v>
       </c>
-      <c r="Z20" t="str">
+      <c r="AB20" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Equal</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>245</v>
       </c>
-      <c r="AB20" s="25" cm="1">
-        <f t="array" ref="AB20">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD20" s="25" cm="1">
+        <f t="array" ref="AD20">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.34693877551020408</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>11</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>12</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>8</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>4</v>
       </c>
-      <c r="AG20">
+      <c r="AI20">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>3</v>
       </c>
-      <c r="AH20" cm="1">
-        <f t="array" ref="AH20">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ20" cm="1">
+        <f t="array" ref="AJ20">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>3</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AJ20">
+      <c r="AL20">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AK20">
+      <c r="AM20">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>3</v>
       </c>
-      <c r="AL20" t="str">
+      <c r="AN20" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Dizzyberry + Mandrake + Morning Dew</v>
       </c>
-      <c r="AM20">
+      <c r="AO20">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>16</v>
       </c>
-      <c r="AN20">
+      <c r="AP20">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO20" t="str" cm="1">
-        <f t="array" ref="AO20">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ20" t="str" cm="1">
+        <f t="array" ref="AQ20">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="26">
-        <f>SUBTOTAL(103,Ingredients[Name])</f>
-        <v>16</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="E21" s="30">
-        <f>SUBTOTAL(101,Ingredients[Cost Grade])</f>
-        <v>0.33124999999999999</v>
-      </c>
-      <c r="F21" s="31">
-        <f>SUBTOTAL(101,Ingredients[Cost])</f>
-        <v>126.5625</v>
-      </c>
-      <c r="G21">
-        <f>SUBTOTAL(101,Ingredients[Uses])</f>
-        <v>2.75</v>
-      </c>
-      <c r="T21" s="4" t="s">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="39">
+        <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>4.05</v>
+      </c>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+        <v>305</v>
+      </c>
+      <c r="H21" s="40">
+        <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U21" s="7">
+      <c r="W21" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>1</v>
       </c>
-      <c r="V21" s="21" t="s">
+      <c r="X21" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="W21" s="21" t="s">
+      <c r="Y21" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="21" t="s">
+      <c r="Z21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>3</v>
       </c>
-      <c r="Z21" t="str">
+      <c r="AB21" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Equal</v>
       </c>
-      <c r="AA21">
+      <c r="AC21">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>420</v>
       </c>
-      <c r="AB21" s="25" cm="1">
-        <f t="array" ref="AB21">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD21" s="25" cm="1">
+        <f t="array" ref="AD21">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>12</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>15</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>9</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>4</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>4</v>
       </c>
-      <c r="AH21" cm="1">
-        <f t="array" ref="AH21">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ21" cm="1">
+        <f t="array" ref="AJ21">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>4</v>
       </c>
-      <c r="AI21">
+      <c r="AK21">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>3</v>
       </c>
-      <c r="AJ21">
+      <c r="AL21">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AK21">
+      <c r="AM21">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AL21" t="str">
+      <c r="AN21" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Morning Dew + Petals of Light + Amber</v>
       </c>
-      <c r="AM21">
+      <c r="AO21">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>17</v>
       </c>
-      <c r="AN21">
+      <c r="AP21">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO21" t="str" cm="1">
-        <f t="array" ref="AO21">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ21" t="str" cm="1">
+        <f t="array" ref="AQ21">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>91</v>
-      </c>
-      <c r="T22" s="4" t="s">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="39">
+        <f>MATCH(Ingredients[[#This Row],[Rarity]],Rarities[Name], 0)</f>
+        <v>5</v>
+      </c>
+      <c r="F22" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">MROUND(INDEX(Rarities[Cheapest], Ingredients[[#This Row],[Rarity Index]])+Ingredients[[#This Row],[Cost Grade]]*INDEX(Rarities[Cost Range],Ingredients[[#This Row],[Rarity Index]]), 5)</f>
+        <v>3990</v>
+      </c>
+      <c r="H22" s="40">
+        <f>COUNTIF(Recipes[[Item 1]:[Item 3]],Ingredients[[#This Row],[Name]])</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U22" s="7">
+      <c r="W22" s="7">
         <f>COUNTIF(Recipes[[#Headers],[Potion]]:Recipes[[#This Row],[Potion]], Recipes[[#This Row],[Potion]])</f>
         <v>2</v>
       </c>
-      <c r="V22" s="21" t="s">
+      <c r="X22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="W22" s="21" t="s">
+      <c r="Y22" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="X22" s="21" t="s">
+      <c r="Z22" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
         <v>3</v>
       </c>
-      <c r="Z22" t="str">
+      <c r="AB22" t="str">
         <f>IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]], "Equal", IF(Recipes[[#This Row],[Max Rarity Index]]=Recipes[[#This Row],[Potion Rarity Index]]+1, "Elevated", IF(Recipes[[#This Row],[Max Rarity Index]]&lt;Recipes[[#This Row],[Potion Rarity Index]], "Under", "Excessive")))</f>
         <v>Equal</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>520</v>
       </c>
-      <c r="AB22" s="25" cm="1">
-        <f t="array" ref="AB22">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
+      <c r="AD22" s="25" cm="1">
+        <f t="array" ref="AD22">(INDEX(Potions[Cost], Recipes[[#This Row],[Potion Index]])-Recipes[[#This Row],[Total Cost]])/Recipes[[#This Row],[Total Cost]]</f>
         <v>0.26923076923076922</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
         <v>12</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
         <v>15</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
         <v>13</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
         <v>2</v>
       </c>
-      <c r="AG22">
+      <c r="AI22">
         <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
         <v>4</v>
       </c>
-      <c r="AH22" cm="1">
-        <f t="array" ref="AH22">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+      <c r="AJ22" cm="1">
+        <f t="array" ref="AJ22">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
         <v>4</v>
       </c>
-      <c r="AI22">
+      <c r="AK22">
         <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>3</v>
       </c>
-      <c r="AJ22">
+      <c r="AL22">
         <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>1</v>
       </c>
-      <c r="AK22">
+      <c r="AM22">
         <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
         <v>2</v>
       </c>
-      <c r="AL22" t="str">
+      <c r="AN22" t="str">
         <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
         <v>Noxious Slime + Petals of Light + Emerald Dust</v>
       </c>
-      <c r="AM22">
+      <c r="AO22">
         <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
         <v>18</v>
       </c>
-      <c r="AN22">
+      <c r="AP22">
         <f>IF(Recipes[[#This Row],[Combined]]="", -1,
 IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
 IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
         <v>0</v>
       </c>
-      <c r="AO22" t="str" cm="1">
-        <f t="array" ref="AO22">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+      <c r="AQ22" t="str" cm="1">
+        <f t="array" ref="AQ22">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
         <v>Unique</v>
       </c>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="T23" s="26">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <f>SUBTOTAL(103,Ingredients[Name])</f>
+        <v>18</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="F23" s="30">
+        <f>SUBTOTAL(101,Ingredients[Cost Grade])</f>
+        <v>0.83055555555555549</v>
+      </c>
+      <c r="G23" s="31">
+        <f>SUBTOTAL(101,Ingredients[Cost])</f>
+        <v>351.11111111111109</v>
+      </c>
+      <c r="H23">
+        <f>SUBTOTAL(101,Ingredients[Uses])</f>
+        <v>2.6111111111111112</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="W23" s="41">
+        <v>1</v>
+      </c>
+      <c r="X23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA23" s="42">
+        <f>COUNTA(Recipes[[#This Row],[Item 1]:[Item 3]])</f>
+        <v>3</v>
+      </c>
+      <c r="AB23" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC23" s="40">
+        <f>SUM(IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Cost], Recipes[[#This Row],[Index 3]]), 0))</f>
+        <v>500</v>
+      </c>
+      <c r="AD23" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="AE23" s="40">
+        <f>MATCH(Recipes[[#This Row],[Potion]],Potions[Name], 0)</f>
+        <v>13</v>
+      </c>
+      <c r="AF23" s="40">
+        <f>MATCH(Recipes[[#This Row],[Item 1]],Ingredients[Name], 0)</f>
+        <v>15</v>
+      </c>
+      <c r="AG23" s="40">
+        <f>MATCH(Recipes[[#This Row],[Item 2]],Ingredients[Name], 0)</f>
+        <v>9</v>
+      </c>
+      <c r="AH23" s="40">
+        <f>MATCH(Recipes[[#This Row],[Item 3]],Ingredients[Name], 0)</f>
+        <v>10</v>
+      </c>
+      <c r="AI23" s="40">
+        <f xml:space="preserve"> MAX(IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 1]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 2]]), 0), IFERROR(INDEX(Ingredients[Rarity Index], Recipes[[#This Row],[Index 3]]), 0))</f>
+        <v>4</v>
+      </c>
+      <c r="AJ23" s="40" cm="1">
+        <f t="array" ref="AJ23">INDEX(Potions[Rarity Index], Recipes[[#This Row],[Potion Index]])</f>
+        <v>2</v>
+      </c>
+      <c r="AK23" s="40">
+        <f>(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 2]])+(Recipes[[#This Row],[Item 1]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
+        <v>3</v>
+      </c>
+      <c r="AL23" s="40">
+        <f>(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 2]]&gt;Recipes[[#This Row],[Item 3]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
+        <v>1</v>
+      </c>
+      <c r="AM23" s="40">
+        <f>(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 1]])+(Recipes[[#This Row],[Item 3]]&gt;Recipes[[#This Row],[Item 2]]) + Recipes[[#This Row],[Ingredient Count]]-2</f>
+        <v>2</v>
+      </c>
+      <c r="AN23" s="40" t="str">
+        <f>_xlfn.TEXTJOIN(" + ", TRUE, IF(Recipes[[#This Row],[Ordinal 1]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 1]]), ""),  IF(Recipes[[#This Row],[Ordinal 2]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 2]]), ""),  IF(Recipes[[#This Row],[Ordinal 3]]&gt;0, INDEX(Recipes[[#This Row],[Item 1]:[Item 3]], Recipes[[#This Row],[Ordinal 3]]), ""))</f>
+        <v>Indigocap + Petals of Light + Amber</v>
+      </c>
+      <c r="AO23" s="40">
+        <f>ROW(Recipes[[#This Row],[Row]])-ROW(Recipes[[#Headers],[Row]])</f>
+        <v>19</v>
+      </c>
+      <c r="AP23" s="40">
+        <f>IF(Recipes[[#This Row],[Combined]]="", -1,
+IFERROR(IFERROR(IF(Recipes[[#This Row],[Row]] = 1, NA(), MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined], 1):INDEX(Recipes[Combined], Recipes[[#This Row],[Row]]-1), 0)),
+IF(Recipes[[#This Row],[Row]]=ROWS(Recipes[]), NA(), Recipes[[#This Row],[Row]]+MATCH(Recipes[[#This Row],[Combined]], INDEX(Recipes[Combined],Recipes[[#This Row],[Row]]+1):INDEX(Recipes[Combined], ROWS(Recipes[])), 0))), 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="40" t="str" cm="1">
+        <f t="array" ref="AQ23">IF(Recipes[[#This Row],[Matching Row]]=-1, "Blank", IF(Recipes[[#This Row],[Matching Row]]=0, "Unique", INDEX(Recipes[Potion],Recipes[[#This Row],[Matching Row]])&amp;" #"&amp; INDEX(Recipes['#],Recipes[[#This Row],[Matching Row]])))</f>
+        <v>Unique</v>
+      </c>
+    </row>
+    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="V24" s="26">
         <f>SUBTOTAL(103,Recipes[Potion])</f>
-        <v>18</v>
-      </c>
-      <c r="U23" s="28"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="32">
+        <v>19</v>
+      </c>
+      <c r="W24" s="28"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="32">
         <f>SUBTOTAL(101,Recipes[Ingredient Count])</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="AA23" s="31">
+        <v>2.4736842105263159</v>
+      </c>
+      <c r="AC24" s="31">
         <f>SUBTOTAL(101,Recipes[Total Cost])</f>
-        <v>205.27777777777777</v>
-      </c>
-      <c r="AB23" s="27">
+        <v>220.78947368421052</v>
+      </c>
+      <c r="AD24" s="27">
         <f>SUBTOTAL(101,Recipes[Profit Margin])</f>
-        <v>0.30070463167818989</v>
+        <v>0.31119386158986412</v>
       </c>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="T24" s="5" t="s">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="V25" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="T25" s="5"/>
+    <row r="26" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="5" t="s">
+    <row r="29" spans="2:44" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28">
-        <f>ROWS(Ingredients[])</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:42" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29">
-        <f>COMBIN(ROWS(Ingredients[]), 2)</f>
-        <v>120</v>
-      </c>
+      <c r="C29" s="5"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="J29"/>
+      <c r="H29"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
@@ -7487,11 +8215,11 @@
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29" s="7"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="V29"/>
       <c r="W29"/>
-      <c r="X29"/>
+      <c r="X29" s="7"/>
       <c r="Y29"/>
       <c r="Z29"/>
       <c r="AA29"/>
@@ -7510,99 +8238,327 @@
       <c r="AN29"/>
       <c r="AO29"/>
       <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30">
+        <f>ROWS(Ingredients[])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31">
+        <f>COMBIN(ROWS(Ingredients[]), 2)</f>
+        <v>153</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="AK31" s="3"/>
+    </row>
+    <row r="32" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C30">
+      <c r="C32" s="14"/>
+      <c r="D32">
         <f>COMBIN(ROWS(Ingredients[]), 3)</f>
-        <v>560</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="AI30" s="3"/>
+        <v>816</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="15" t="s">
+    <row r="33" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="3">
-        <f>SUM(C28:C30)</f>
-        <v>696</v>
-      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="3">
+        <f>SUM(D30:D32)</f>
+        <v>987</v>
+      </c>
+      <c r="AR33" s="3"/>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" t="s">
+    <row r="35" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>73</v>
       </c>
-      <c r="C33">
+      <c r="D35">
         <f>COUNTIF(Recipes[Same As?], "Unique")</f>
-        <v>18</v>
-      </c>
-      <c r="AP33" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
     </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" t="s">
+    <row r="36" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="16">
-        <f>C33/C31</f>
-        <v>2.5862068965517241E-2</v>
-      </c>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
+      <c r="D36" s="16">
+        <f>D35/D33</f>
+        <v>1.9250253292806486E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B5:D20">
-    <cfRule type="expression" dxfId="43" priority="43">
-      <formula>$D5=1</formula>
+  <conditionalFormatting sqref="B5:E22">
+    <cfRule type="expression" dxfId="50" priority="44">
+      <formula>$E5=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="42">
-      <formula>$D5=2</formula>
+    <cfRule type="expression" dxfId="49" priority="45">
+      <formula>$E5=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="41">
-      <formula>$D5=3</formula>
+    <cfRule type="expression" dxfId="48" priority="46">
+      <formula>$E5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="39">
-      <formula>$D5=5</formula>
+    <cfRule type="expression" dxfId="47" priority="47">
+      <formula>$E5=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="40">
-      <formula>$D5=4</formula>
+    <cfRule type="expression" dxfId="46" priority="48">
+      <formula>$E5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E20">
-    <cfRule type="dataBar" priority="48">
+  <conditionalFormatting sqref="H5:H22">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K17 M5:N17">
+    <cfRule type="expression" dxfId="44" priority="34">
+      <formula>$N5=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="35">
+      <formula>$N5=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="36">
+      <formula>$N5=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="37">
+      <formula>$N5=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="38">
+      <formula>$N5=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O17">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{037A0C64-7789-4D1F-A23D-D8BC497FBA7F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:R17">
+    <cfRule type="dataBar" priority="62">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C9FB3D57-A4BA-4975-A360-A529823EE890}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q17">
+    <cfRule type="expression" dxfId="38" priority="13">
+      <formula>Q5&gt;R5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S17">
+    <cfRule type="dataBar" priority="54">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9335A7AD-9DE9-4B27-A099-67B85F280E7B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V23">
+    <cfRule type="expression" dxfId="37" priority="18">
+      <formula>INDEX(PotionRarity, AE5)="Legendary"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="19">
+      <formula>INDEX(PotionRarity, AE5)="Epic"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="20">
+      <formula>INDEX(PotionRarity, AE5)="Rare"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="21">
+      <formula>INDEX(PotionRarity, AE5)="Uncommon"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="22">
+      <formula>INDEX(PotionRarity, AE5)="Common"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5:Z5">
+    <cfRule type="duplicateValues" dxfId="32" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5:Z23">
+    <cfRule type="expression" dxfId="31" priority="23">
+      <formula>INDEX(IngredientRarity,AF5)="Legendary"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="24">
+      <formula>INDEX(IngredientRarity,AF5)="Epic"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="25">
+      <formula>INDEX(IngredientRarity,AF5)="Rare"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="26">
+      <formula>INDEX(IngredientRarity,AF5)="Uncommon"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>INDEX(IngredientRarity,AF5)="Common"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5:Y23">
+    <cfRule type="expression" dxfId="26" priority="10">
+      <formula>Y5=X5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:Z23">
+    <cfRule type="expression" dxfId="25" priority="9">
+      <formula>AND(Z5&lt;&gt;"", OR(Z5=Y5, Z5=X5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA23">
+    <cfRule type="cellIs" dxfId="24" priority="230" operator="lessThan">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="231">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{265428C5-BF75-4A21-92CC-EE4C315D5DC5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB5:AB23">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+      <formula>"Excessive"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+      <formula>"Under"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+      <formula>"Elevated"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+      <formula>"Equal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC5:AC23">
+    <cfRule type="dataBar" priority="232">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42FD5F13-D6DB-4218-B008-1A4C87F76A54}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD5:AD23">
+    <cfRule type="dataBar" priority="233">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8DAE35F3-6BD8-413A-AA1F-F4A308241B35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ5:AQ23">
+    <cfRule type="expression" dxfId="19" priority="58">
+      <formula>$AP5&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="59" operator="equal">
+      <formula>"Blank"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="60" operator="equal">
+      <formula>"Unique"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J10 G23 G5:H22">
+    <cfRule type="dataBar" priority="234">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{768DB3E6-322B-4675-A71C-0CC33BAE55BC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F22">
+    <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7615,22 +8571,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:G20 I5:I10 F5:F21">
-    <cfRule type="dataBar" priority="52">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{768DB3E6-322B-4675-A71C-0CC33BAE55BC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G20 I5:I10">
-    <cfRule type="dataBar" priority="50">
+  <conditionalFormatting sqref="H5:H22 J5:J10">
+    <cfRule type="dataBar" priority="241">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7643,203 +8585,31 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G20">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThan">
-      <formula>1</formula>
+  <conditionalFormatting sqref="L5:L17">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$E5=5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:L16">
-    <cfRule type="expression" dxfId="37" priority="33">
-      <formula>$L5=1</formula>
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>$E5=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
-      <formula>$L5=2</formula>
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$E5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="31">
-      <formula>$L5=3</formula>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$E5=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
-      <formula>$L5=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="29">
-      <formula>$L5=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M16">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="44">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{037A0C64-7789-4D1F-A23D-D8BC497FBA7F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:P16">
-    <cfRule type="dataBar" priority="57">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C9FB3D57-A4BA-4975-A360-A529823EE890}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O16">
-    <cfRule type="expression" dxfId="31" priority="8">
-      <formula>O5&gt;P5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q16">
-    <cfRule type="dataBar" priority="49">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9335A7AD-9DE9-4B27-A099-67B85F280E7B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T22">
-    <cfRule type="expression" dxfId="30" priority="17">
-      <formula>INDEX(PotionRarity, AC5)="Common"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="16">
-      <formula>INDEX(PotionRarity, AC5)="Uncommon"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="15">
-      <formula>INDEX(PotionRarity, AC5)="Rare"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="14">
-      <formula>INDEX(PotionRarity, AC5)="Epic"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="13">
-      <formula>INDEX(PotionRarity, AC5)="Legendary"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5:X5">
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5:X22">
-    <cfRule type="expression" dxfId="24" priority="22">
-      <formula>INDEX(IngredientRarity,AD5)="Common"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="21">
-      <formula>INDEX(IngredientRarity,AD5)="Uncommon"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
-      <formula>INDEX(IngredientRarity,AD5)="Rare"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="18">
-      <formula>INDEX(IngredientRarity,AD5)="Legendary"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="19">
-      <formula>INDEX(IngredientRarity,AD5)="Epic"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W5:W22">
-    <cfRule type="expression" dxfId="19" priority="5">
-      <formula>W5=V5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X5:X22">
-    <cfRule type="expression" dxfId="18" priority="4">
-      <formula>AND(X5&lt;&gt;"", OR(X5=W5, X5=V5))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y5:Y22">
-    <cfRule type="cellIs" dxfId="17" priority="225" operator="lessThan">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="226">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{265428C5-BF75-4A21-92CC-EE4C315D5DC5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z22">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
-      <formula>"Excessive"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
-      <formula>"Equal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
-      <formula>"Elevated"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
-      <formula>"Under"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA22">
-    <cfRule type="dataBar" priority="227">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42FD5F13-D6DB-4218-B008-1A4C87F76A54}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB22">
-    <cfRule type="dataBar" priority="228">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8DAE35F3-6BD8-413A-AA1F-F4A308241B35}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO5:AO22">
-    <cfRule type="expression" dxfId="12" priority="53">
-      <formula>$AN5&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="54" operator="equal">
-      <formula>"Blank"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="55" operator="equal">
-      <formula>"Unique"</formula>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$E5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C20 K5:K16" xr:uid="{9EEA8C00-4660-4074-A166-323023D3F1FE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D22 M5:M17" xr:uid="{9EEA8C00-4660-4074-A166-323023D3F1FE}">
       <formula1>INDIRECT("Rarities[Name]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:X22" xr:uid="{EEBB70AF-8542-4290-ACC3-4CDDF978BA3B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5:Z23" xr:uid="{EEBB70AF-8542-4290-ACC3-4CDDF978BA3B}">
       <formula1>INDIRECT("Ingredients[Name]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T22" xr:uid="{41660AF6-554C-4002-AF79-2AE11B650C78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V23" xr:uid="{41660AF6-554C-4002-AF79-2AE11B650C78}">
       <formula1>INDIRECT("Potions[Name]")</formula1>
     </dataValidation>
   </dataValidations>
@@ -7856,6 +8626,83 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{037A0C64-7789-4D1F-A23D-D8BC497FBA7F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O5:O17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C9FB3D57-A4BA-4975-A360-A529823EE890}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P5:R17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9335A7AD-9DE9-4B27-A099-67B85F280E7B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S5:S17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{265428C5-BF75-4A21-92CC-EE4C315D5DC5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AA5:AA23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42FD5F13-D6DB-4218-B008-1A4C87F76A54}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AC5:AC23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8DAE35F3-6BD8-413A-AA1F-F4A308241B35}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AD5:AD23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{768DB3E6-322B-4675-A71C-0CC33BAE55BC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J5:J10 G23 G5:H22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A6C1AAA3-E18E-435A-9D95-35F8312423EC}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -7866,18 +8713,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E5:E20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{768DB3E6-322B-4675-A71C-0CC33BAE55BC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F5:G20 I5:I10 F5:F21</xm:sqref>
+          <xm:sqref>F5:F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FBD79B31-C930-48AB-B939-9036E8D214D1}">
@@ -7888,73 +8724,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G5:G20 I5:I10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{037A0C64-7789-4D1F-A23D-D8BC497FBA7F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M5:M16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C9FB3D57-A4BA-4975-A360-A529823EE890}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N5:P16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9335A7AD-9DE9-4B27-A099-67B85F280E7B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Q5:Q16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{265428C5-BF75-4A21-92CC-EE4C315D5DC5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Y5:Y22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42FD5F13-D6DB-4218-B008-1A4C87F76A54}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AA5:AA22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8DAE35F3-6BD8-413A-AA1F-F4A308241B35}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AB5:AB22</xm:sqref>
+          <xm:sqref>H5:H22 J5:J10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7970,19 +8740,19 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="14" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.41796875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="15.41796875" customWidth="1"/>
-    <col min="11" max="11" width="12.9453125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
@@ -7990,7 +8760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -8019,7 +8789,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -8046,14 +8816,14 @@
       </c>
       <c r="I5" s="35">
         <f>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</f>
-        <v>0.4375</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="J5" s="35">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
-        <v>0.33333333333333331</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -8072,22 +8842,22 @@
       </c>
       <c r="G6" s="4">
         <f>COUNTIF(Ingredients[Rarity], Rarities[[#This Row],[Name]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4">
         <f>COUNTIF(Potions[Rarity], Rarities[[#This Row],[Name]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="36">
         <f>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</f>
-        <v>0.1875</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="J6" s="36">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
-        <v>0.33333333333333331</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -8114,14 +8884,14 @@
       </c>
       <c r="I7" s="36">
         <f>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</f>
-        <v>0.1875</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J7" s="36">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
-        <v>0.25</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -8148,14 +8918,14 @@
       </c>
       <c r="I8" s="36">
         <f>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J8" s="36">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -8174,7 +8944,7 @@
       </c>
       <c r="G9" s="11">
         <f>COUNTIF(Ingredients[Rarity], Rarities[[#This Row],[Name]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="11">
         <f>COUNTIF(Potions[Rarity], Rarities[[#This Row],[Name]])</f>
@@ -8182,32 +8952,32 @@
       </c>
       <c r="I9" s="37">
         <f>Rarities[[#This Row],[Ingredients]]/Rarities[[#Totals],[Ingredients]]</f>
-        <v>6.25E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J9" s="37">
         <f>Rarities[[#This Row],[Potions]]/Rarities[[#Totals],[Potions]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>86</v>
       </c>
       <c r="G10">
         <f>SUBTOTAL(109,Rarities[Ingredients])</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <f>SUBTOTAL(109,Rarities[Potions])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
         <v>87</v>
       </c>
@@ -8216,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
         <v>74</v>
       </c>
@@ -8225,30 +8995,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="38" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="38">
         <f>COUNTIF(Recipes[Ingredient Count], 3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Legendary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"Epic"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"Rare"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Uncommon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"Common"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8267,7 +9037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D9">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>D5&lt;C5</formula>
     </cfRule>
   </conditionalFormatting>
